--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_24_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59747.81044132612</v>
+        <v>11726330.13301437</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59747.81044132612</v>
+        <v>11726330.13301437</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11823.42959664872</v>
+        <v>1536934.304427038</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11823.42959664872</v>
+        <v>1536934.304427038</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419656962.233506</v>
+        <v>58031181.79279982</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12439.12504251149</v>
+        <v>1392395.09472561</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23427.93022553174</v>
+        <v>2557318.857033259</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34416.73540855198</v>
+        <v>3722242.619340911</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>45655.44369956173</v>
+        <v>4812695.269745247</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>56790.53808923224</v>
+        <v>5989778.146738117</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67810.97174027022</v>
+        <v>7154701.909045764</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>78831.40539130823</v>
+        <v>8319625.67135341</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>89851.83904234621</v>
+        <v>9484549.433661057</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101372.2524163197</v>
+        <v>10496769.27048501</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>112546.6991054354</v>
+        <v>11686670.02597089</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>123567.1327564733</v>
+        <v>12851593.78827855</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>134587.5664075113</v>
+        <v>14016517.5505862</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>145608.0000585492</v>
+        <v>15181441.31289386</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>156861.4771290355</v>
+        <v>16271886.55111363</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>169971.4964329955</v>
+        <v>17071079.00866856</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>335</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
